--- a/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57C2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>14551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8085</v>
+        <v>8114</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25198</v>
+        <v>25451</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0252237449959424</v>
+        <v>0.02522374499594241</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01401533841044496</v>
+        <v>0.01406602535640158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04368109844385869</v>
+        <v>0.04411947377343454</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -762,19 +762,19 @@
         <v>19104</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13684</v>
+        <v>13435</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28518</v>
+        <v>27439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02343516930559815</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01678637712882726</v>
+        <v>0.01648054421823852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03498398318162735</v>
+        <v>0.03365992527034912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -783,19 +783,19 @@
         <v>33655</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23080</v>
+        <v>24149</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45251</v>
+        <v>46505</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0241763588561943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01657948619423768</v>
+        <v>0.01734757872415116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03250631208947527</v>
+        <v>0.03340718756682145</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>39443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29824</v>
+        <v>30103</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>52456</v>
+        <v>50743</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0683749891641299</v>
+        <v>0.06837498916412993</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05169997824291688</v>
+        <v>0.05218345692365115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0909327707961665</v>
+        <v>0.08796298914425649</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>141</v>
@@ -833,19 +833,19 @@
         <v>81869</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69203</v>
+        <v>69655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95098</v>
+        <v>95284</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.100429982024381</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08489290624513067</v>
+        <v>0.08544668930947807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1166583652805287</v>
+        <v>0.1168863416734115</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>195</v>
@@ -854,19 +854,19 @@
         <v>121312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105441</v>
+        <v>103757</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>140093</v>
+        <v>139242</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08714632515667553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07574507292312041</v>
+        <v>0.07453551555912231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1006378139364289</v>
+        <v>0.1000261920752852</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>110012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>92397</v>
+        <v>93940</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>128272</v>
+        <v>133281</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1907052037571212</v>
+        <v>0.1907052037571213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1601699369397818</v>
+        <v>0.1628444753160277</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.222359337334474</v>
+        <v>0.2310415809371537</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>348</v>
@@ -904,19 +904,19 @@
         <v>187292</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>168427</v>
+        <v>169322</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>205550</v>
+        <v>207132</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.229754841485781</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2066120270391673</v>
+        <v>0.2077101592657706</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2521517281154937</v>
+        <v>0.2540927306072581</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>487</v>
@@ -925,19 +925,19 @@
         <v>297305</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>272804</v>
+        <v>273315</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>323848</v>
+        <v>324350</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2135725889843634</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1959725891555652</v>
+        <v>0.1963391723232041</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2326403694746306</v>
+        <v>0.2330007214430038</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>244938</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>222192</v>
+        <v>222530</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>269186</v>
+        <v>267209</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.424598823826062</v>
+        <v>0.4245988238260621</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3851680110569831</v>
+        <v>0.3857537536398473</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4666320991247118</v>
+        <v>0.4632056780841586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>618</v>
@@ -975,19 +975,19 @@
         <v>356568</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>335125</v>
+        <v>333290</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>380730</v>
+        <v>377684</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4374081921396428</v>
+        <v>0.4374081921396429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4111035014946872</v>
+        <v>0.4088528942840105</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4670478638247346</v>
+        <v>0.463311919709291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>916</v>
@@ -996,19 +996,19 @@
         <v>601506</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>568098</v>
+        <v>573019</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>631239</v>
+        <v>635630</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4320999628066499</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4081004499437871</v>
+        <v>0.4116352828596347</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4534589939313345</v>
+        <v>0.4566130113089316</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>167925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>146928</v>
+        <v>144900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>189470</v>
+        <v>190054</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2910972382567445</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2546992109410133</v>
+        <v>0.2511822601718431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3284454521785216</v>
+        <v>0.3294580816647344</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>278</v>
@@ -1046,19 +1046,19 @@
         <v>170350</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>152356</v>
+        <v>153422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>189358</v>
+        <v>191070</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.208971815044597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1868975156973871</v>
+        <v>0.1882056186591169</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2322884788561052</v>
+        <v>0.2343885077507664</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>462</v>
@@ -1067,19 +1067,19 @@
         <v>338276</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>310673</v>
+        <v>310360</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>370006</v>
+        <v>368024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.243004764196117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2231759608965005</v>
+        <v>0.2229511711278482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2657984017540886</v>
+        <v>0.2643745086143863</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>18785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11168</v>
+        <v>11614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27800</v>
+        <v>29906</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.008427369313788074</v>
+        <v>0.008427369313788076</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005010083858833248</v>
+        <v>0.005210434555013144</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01247173864504289</v>
+        <v>0.01341644383642468</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1192,19 +1192,19 @@
         <v>30667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21209</v>
+        <v>21102</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47027</v>
+        <v>47600</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01413519336059537</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009775646459227924</v>
+        <v>0.009726463828140262</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02167600993956319</v>
+        <v>0.02193991309812092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -1213,19 +1213,19 @@
         <v>49452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36425</v>
+        <v>35019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67847</v>
+        <v>68683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01124268192909572</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008281083530613097</v>
+        <v>0.007961428236089091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01542482976479772</v>
+        <v>0.0156149301336165</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>50271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38307</v>
+        <v>37133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66988</v>
+        <v>65602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02255290570688825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01718549614901561</v>
+        <v>0.01665897596622344</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03005251004316603</v>
+        <v>0.02943083913643483</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -1263,19 +1263,19 @@
         <v>68907</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54905</v>
+        <v>55006</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>85623</v>
+        <v>84889</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.03176125466457656</v>
+        <v>0.03176125466457655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02530701985668147</v>
+        <v>0.02535390549050902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03946577990024989</v>
+        <v>0.03912778834332666</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>144</v>
@@ -1284,19 +1284,19 @@
         <v>119179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>101390</v>
+        <v>100578</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>138722</v>
+        <v>140689</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02709480832584438</v>
+        <v>0.02709480832584439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0230505567777001</v>
+        <v>0.02286600010452305</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03153800619599913</v>
+        <v>0.03198514018100412</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>162535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>140353</v>
+        <v>140195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>190901</v>
+        <v>191334</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0729173249730372</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06296609634997745</v>
+        <v>0.0628949596427128</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08564280000664129</v>
+        <v>0.08583724541791629</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>281</v>
@@ -1334,19 +1334,19 @@
         <v>201741</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>178919</v>
+        <v>180151</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>228505</v>
+        <v>225543</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09298789869084245</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08246882336035181</v>
+        <v>0.08303635876449113</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.105323903648467</v>
+        <v>0.1039587674958991</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>446</v>
@@ -1355,19 +1355,19 @@
         <v>364276</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>331306</v>
+        <v>329339</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>403828</v>
+        <v>398956</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08281688370519634</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07532132611777147</v>
+        <v>0.07487405118384252</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09180885567438694</v>
+        <v>0.0907012251704267</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>1054721</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>996958</v>
+        <v>999519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1103427</v>
+        <v>1111163</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4731745138985831</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4472603161223369</v>
+        <v>0.4484093711553369</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.495025402244991</v>
+        <v>0.4984956970822519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1532</v>
@@ -1405,19 +1405,19 @@
         <v>1052043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1008853</v>
+        <v>1007444</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1096482</v>
+        <v>1094764</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4849147842052728</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4650077887539749</v>
+        <v>0.4643582626700847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5053980383368809</v>
+        <v>0.5046062692097828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2540</v>
@@ -1426,19 +1426,19 @@
         <v>2106764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2038910</v>
+        <v>2032791</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2178859</v>
+        <v>2175545</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4789652549639167</v>
+        <v>0.4789652549639166</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4635388633768135</v>
+        <v>0.462147724356299</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4953557479957992</v>
+        <v>0.4946024128173276</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>942720</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>884768</v>
+        <v>882811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>999084</v>
+        <v>994487</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4229278861077033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3969292703406527</v>
+        <v>0.3960510823264307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4482142886519281</v>
+        <v>0.4461520208504848</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>978</v>
@@ -1476,19 +1476,19 @@
         <v>816183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>770715</v>
+        <v>772622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>864876</v>
+        <v>857747</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3762008690787128</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3552434008771146</v>
+        <v>0.3561221690189145</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3986448699731828</v>
+        <v>0.3953587464756533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1725</v>
@@ -1497,19 +1497,19 @@
         <v>1758903</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1685305</v>
+        <v>1686467</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1825897</v>
+        <v>1831497</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3998803710759468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3831480826285177</v>
+        <v>0.3834121898898387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4151110655467145</v>
+        <v>0.4163842253682485</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>9708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3884</v>
+        <v>3957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20267</v>
+        <v>20696</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01365400716726381</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005463597007690262</v>
+        <v>0.005565316997013353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02850588684485755</v>
+        <v>0.02910949043967078</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1622,19 +1622,19 @@
         <v>1736</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5241</v>
+        <v>4982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002362888754212005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0006774416905549288</v>
+        <v>0.0006821116885581483</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007132353429618413</v>
+        <v>0.006779080713896595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1643,19 +1643,19 @@
         <v>11444</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5628</v>
+        <v>5838</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23470</v>
+        <v>23606</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007915124119435816</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003892338605997608</v>
+        <v>0.004037593220938826</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01623261942251459</v>
+        <v>0.01632660112479629</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>10663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5370</v>
+        <v>5035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21742</v>
+        <v>22651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01499757676826239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007553346346875225</v>
+        <v>0.007082023211933393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03057984200832648</v>
+        <v>0.03185865704899556</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1693,19 +1693,19 @@
         <v>12747</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7362</v>
+        <v>7575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24085</v>
+        <v>22433</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01734589334767748</v>
+        <v>0.01734589334767747</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01001867039959884</v>
+        <v>0.01030751991643386</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03277397589355431</v>
+        <v>0.03052682701600242</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1714,19 +1714,19 @@
         <v>23410</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14591</v>
+        <v>14459</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36947</v>
+        <v>35771</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01619114446594595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01009185819047049</v>
+        <v>0.0100000952744273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02555370867530636</v>
+        <v>0.02474071199173923</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>36671</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25473</v>
+        <v>25833</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53225</v>
+        <v>51004</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05157824763850673</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03582866190875692</v>
+        <v>0.03633449961250066</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07486184863084505</v>
+        <v>0.07173819771538537</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -1764,19 +1764,19 @@
         <v>39082</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28686</v>
+        <v>28661</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51597</v>
+        <v>51413</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05318204349517131</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03903468449185282</v>
+        <v>0.0390006738716094</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07021108889259441</v>
+        <v>0.06996203582917042</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>87</v>
@@ -1785,19 +1785,19 @@
         <v>75753</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>61114</v>
+        <v>60692</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>94446</v>
+        <v>92543</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05239340132986737</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04226858646325869</v>
+        <v>0.04197641505155817</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06532217411129015</v>
+        <v>0.06400570814937749</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>308627</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>279603</v>
+        <v>281759</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>336596</v>
+        <v>336686</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.434089220181316</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3932660699503746</v>
+        <v>0.3962978958148522</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4734273365905646</v>
+        <v>0.4735533968314447</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>515</v>
@@ -1835,19 +1835,19 @@
         <v>352472</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>328065</v>
+        <v>328077</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>375539</v>
+        <v>375852</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4796343165256836</v>
+        <v>0.4796343165256835</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4464212779269096</v>
+        <v>0.4464384432393398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5110233597765238</v>
+        <v>0.5114492570743138</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>838</v>
@@ -1856,19 +1856,19 @@
         <v>661100</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>626362</v>
+        <v>624088</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>696575</v>
+        <v>698213</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4572382096578809</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4332124533993932</v>
+        <v>0.4316397153378443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4817737927400381</v>
+        <v>0.4829067340714137</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>345308</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>317815</v>
+        <v>317317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>374803</v>
+        <v>373665</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4856809482446512</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4470118760249568</v>
+        <v>0.4463108424618984</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5271662445637297</v>
+        <v>0.525565057004075</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>420</v>
@@ -1906,19 +1906,19 @@
         <v>328839</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>305210</v>
+        <v>306179</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>353733</v>
+        <v>353839</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4474748578772554</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4153209074694794</v>
+        <v>0.4166399419419906</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4813496708235083</v>
+        <v>0.4814945216509424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>725</v>
@@ -1927,19 +1927,19 @@
         <v>674147</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>637949</v>
+        <v>636523</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>713506</v>
+        <v>712075</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4662621204268702</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4412267449376556</v>
+        <v>0.44023989804772</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4934842518135939</v>
+        <v>0.4924941641302409</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>43043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29111</v>
+        <v>30038</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58034</v>
+        <v>59669</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01223908579352894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008277511123154568</v>
+        <v>0.008541073145276745</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01650147803475929</v>
+        <v>0.01696636383850529</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2052,19 +2052,19 @@
         <v>51507</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38511</v>
+        <v>40958</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67658</v>
+        <v>68861</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01384752616505854</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01035365114912536</v>
+        <v>0.01101143277818057</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01818959009387001</v>
+        <v>0.01851307902740004</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -2073,19 +2073,19 @@
         <v>94551</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>76922</v>
+        <v>76692</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115772</v>
+        <v>116965</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0130658354674543</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01062971356371894</v>
+        <v>0.01059795747823612</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01599834351472182</v>
+        <v>0.01616329956723772</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>100378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>81271</v>
+        <v>81288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>121934</v>
+        <v>120133</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02854166224397663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02310884224905211</v>
+        <v>0.02311355177290892</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03467118065268295</v>
+        <v>0.03415889822135715</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>249</v>
@@ -2123,19 +2123,19 @@
         <v>163523</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>142818</v>
+        <v>144528</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>183373</v>
+        <v>186421</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04396259246848599</v>
+        <v>0.04396259246848601</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03839596585772047</v>
+        <v>0.03885578413146865</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04929916704730958</v>
+        <v>0.05011846391989279</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>363</v>
@@ -2144,19 +2144,19 @@
         <v>263901</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>235065</v>
+        <v>238141</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>292830</v>
+        <v>296516</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03646812893830278</v>
+        <v>0.03646812893830279</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03248334985538408</v>
+        <v>0.03290837872728424</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04046577521719777</v>
+        <v>0.04097510052612954</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>309218</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>277547</v>
+        <v>273115</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>345881</v>
+        <v>345249</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08792402036220627</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0789185142680939</v>
+        <v>0.0776583565448236</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09834886398677056</v>
+        <v>0.09816920553880698</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>680</v>
@@ -2194,19 +2194,19 @@
         <v>428116</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>396168</v>
+        <v>395310</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>464295</v>
+        <v>464052</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1150971981043501</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1065081649504274</v>
+        <v>0.1062775674669529</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1248237154085838</v>
+        <v>0.1247585794979841</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1020</v>
@@ -2215,19 +2215,19 @@
         <v>737334</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>688443</v>
+        <v>692719</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>786961</v>
+        <v>787598</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1018912250130502</v>
+        <v>0.1018912250130503</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09513506344614862</v>
+        <v>0.0957258724594334</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1087491284126777</v>
+        <v>0.1088372036422124</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>1608287</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1548239</v>
+        <v>1545765</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1683423</v>
+        <v>1677010</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4573051602507407</v>
+        <v>0.4573051602507406</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4402309011518912</v>
+        <v>0.4395276051234943</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4786695410193881</v>
+        <v>0.4768460663832007</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2665</v>
@@ -2265,19 +2265,19 @@
         <v>1761083</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1699453</v>
+        <v>1705965</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1813385</v>
+        <v>1821575</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4734600360838891</v>
+        <v>0.4734600360838892</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4568909502247062</v>
+        <v>0.4586417287785229</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4875212071921546</v>
+        <v>0.4897229538012514</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4294</v>
@@ -2286,19 +2286,19 @@
         <v>3369370</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3278278</v>
+        <v>3283183</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3447585</v>
+        <v>3448700</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.465608880154674</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4530209214012773</v>
+        <v>0.4536987565918962</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4764173256044989</v>
+        <v>0.4765714063841457</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>1455953</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1387661</v>
+        <v>1391386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1518049</v>
+        <v>1521338</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4139900713495475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3945717195680727</v>
+        <v>0.3956308491082212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4316465428057172</v>
+        <v>0.4325819197182112</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1676</v>
@@ -2336,19 +2336,19 @@
         <v>1315373</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1263562</v>
+        <v>1258902</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1374313</v>
+        <v>1373007</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3536326471782161</v>
+        <v>0.3536326471782162</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3397035918048015</v>
+        <v>0.3384506315227867</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3694784815770648</v>
+        <v>0.3691272528523534</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2912</v>
@@ -2357,19 +2357,19 @@
         <v>2771326</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2688710</v>
+        <v>2690368</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2861496</v>
+        <v>2860276</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3829659304265186</v>
+        <v>0.3829659304265187</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3715493683328385</v>
+        <v>0.3717784490094149</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3954263461980531</v>
+        <v>0.3952578347217384</v>
       </c>
     </row>
     <row r="27">
